--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +387,38 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12121 </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>212121</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12121 </t>
+          <t xml:space="preserve"> 12121    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12121    </t>
+          <t xml:space="preserve"> 12121     </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
